--- a/excel/aa.xlsx
+++ b/excel/aa.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nihao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,6 +30,18 @@
   </si>
   <si>
     <t>李宜璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +370,7 @@
   <dimension ref="A1:F6000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,16 +386,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F8" si="0">IF(COUNTIF(A2,"*你好*"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -396,7 +404,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -404,17 +412,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
